--- a/biology/Médecine/Facteur_nucléaire_hépatocytaire_4/Facteur_nucléaire_hépatocytaire_4.xlsx
+++ b/biology/Médecine/Facteur_nucléaire_hépatocytaire_4/Facteur_nucléaire_hépatocytaire_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Facteur_nucl%C3%A9aire_h%C3%A9patocytaire_4</t>
+          <t>Facteur_nucléaire_hépatocytaire_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le facteur nucléaire hépatocytaire 4 (en anglais hepatocyte nuclear factor-4, HNF4)  est une protéine de la superfamille des récepteurs nucléaires, de la famille des récepteurs orphelins c'est-à-dire un facteur de transcription ne possédant pas à ce jour de ligand clairement défini. HNF4 est impliqué dans la régulation de la différenciation cellulaire hépatique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Facteur_nucl%C3%A9aire_h%C3%A9patocytaire_4</t>
+          <t>Facteur_nucléaire_hépatocytaire_4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe deux isoformes de HNF4 appelées HNF4-α[1] et HNF4-γ[2] codées respectivement par le gène HNF4A localisé sur le chromosome 20 et le gène HNF4G localisé sur le chromosome 8 chez l'homme.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe deux isoformes de HNF4 appelées HNF4-α et HNF4-γ codées respectivement par le gène HNF4A localisé sur le chromosome 20 et le gène HNF4G localisé sur le chromosome 8 chez l'homme.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Facteur_nucl%C3%A9aire_h%C3%A9patocytaire_4</t>
+          <t>Facteur_nucléaire_hépatocytaire_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Facteur_nucl%C3%A9aire_h%C3%A9patocytaire_4</t>
+          <t>Facteur_nucléaire_hépatocytaire_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,9 +584,11 @@
           <t>Fonctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Exprimé essentiellement dans le foie, HNF4 participe à son développement et plus particulièrement à la différenciation des cellules épithéliales hépatiques. HNF4 est également exprimé dans l'intestin, le rein, les cellules bêta[3] du pancréas endocrine.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Exprimé essentiellement dans le foie, HNF4 participe à son développement et plus particulièrement à la différenciation des cellules épithéliales hépatiques. HNF4 est également exprimé dans l'intestin, le rein, les cellules bêta du pancréas endocrine.
 </t>
         </is>
       </c>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Facteur_nucl%C3%A9aire_h%C3%A9patocytaire_4</t>
+          <t>Facteur_nucléaire_hépatocytaire_4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Des mutations du gène de HNF4-α ont été associées à la survenue d'un type particulier de diabète chez l'enfant appelé MODY de type 1.
 </t>
